--- a/DDAf_2025_Tableau_annexe_Tab35.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab35.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80FA99A3-9F45-4FBB-9BE4-0075CD337DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E0421EC-9B00-472C-AB75-F3B239193FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{051D2087-9A66-4D96-9378-493A5DF79E2D}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{746B1F47-D675-4BC4-8498-0A54979A40AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab35" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab35'!$A$2:$I$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab35'!$A$1:$I$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab35'!$A$2:$J$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab35'!$A$1:$J$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,228 +37,228 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="235">
   <si>
-    <t>Table 35: Employment by business activity and skill level</t>
+    <t>Tableau 35 : Emploi par activité commerciale et niveau de compétence</t>
   </si>
   <si>
-    <t>CntryCode</t>
+    <t>ISO3 Code</t>
   </si>
   <si>
-    <t>Country (Resource-rich countries are shaded)</t>
+    <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
-    <t>Number of workers with low skill in agriculture, forestry and fishing, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans l'agriculture, la foresterie et la pêche, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in mining and quarrying, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans les mines et carrières, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in manufacturing, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans le secteur manufacturier, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in electricity, gas, heating and cooling, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans les domaines de l'électricité, du gaz, du chauffage et du refroidissement, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in water supply, waste management, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans l'approvisionnement en eau et la gestion des déchets, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in construction, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans la construction, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in wholesale and retail trade, MV repair, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans le commerce de gros et de détail, réparation de véhicules à moteur, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in transportation and storage, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés en transport et entreposage, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in accommodation and food services, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans les services d'hébergement et de restauration, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in information and communication, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés en information et communication, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in finance and insurances, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés en finance et assurances, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in real estate activities, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans les activités immobilières, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in professional, scientific and technical activities, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans les domaines professionnel, scientifique et technique, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in administration and support, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés en matière d'administration et de soutien, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in public administration, defence, and social security, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans l'administration publique, la défense et la sécurité sociale, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in education, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés en matière d'éducation, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in health and social work, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans les domaines de la santé et du travail social, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in arts, entertainment and recreation, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans les domaines des arts, du divertissement et des loisirs, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in other services, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans d'autres services, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in households, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans les ménages, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in extraterritorial organisations and bodies, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans les organisations et organismes extraterritoriaux, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in all activities, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs peu qualifiés dans toutes les activités, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with low skill in activities not elsewhere classified, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs low qualifiés non classés ailleurs, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in agriculture, forestry and fishing, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans l'agriculture, la foresterie et la pêche, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in mining and quarrying, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans les mines et carrières, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in manufacturing, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans le secteur manufacturier, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in electricity, gas, heating and cooling, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans les domaines de l'électricité, du gaz, du chauffage et du refroidissement, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in water supply, waste management, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans l'approvisionnement en eau et la gestion des déchets, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in construction, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans la construction, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in wholesale and retail trade, MV repair, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans le commerce de gros et de détail, réparation de véhicules à moteur, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in transportation and storage, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés en transport et entreposage, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in accommodation and food services, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans les services d'hébergement et de restauration, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in information and communication, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés en information et communication, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in finance and insurances, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés en finance et assurances, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in real estate activities, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans les activités immobilières, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in professional, scientific and technical activities, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans les domaines professionnel, scientifique et technique, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in administration and support, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs ayant des compétences moyennes en administration et en soutien, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in public administration, defence, and social security, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans l'administration publique, la défense et la sécurité sociale, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in education, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés en éducation, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in health and social work, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans le domaine de la santé et du travail social, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in arts, entertainment and recreation, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans les arts, le divertissement et les loisirs, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in other services, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans d'autres services, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in households, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans les ménages, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in extraterritorial organisations and bodies, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans les organisations et organismes extraterritoriaux, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in all activities, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés dans toutes les activités, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with medium skill in activities not elsewhere classified, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs moyennement qualifiés non classés ailleurs, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in agriculture, forestry and fishing, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les domaines de l'agriculture, de la foresterie et de la pêche, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in mining and quarrying, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les mines et carrières, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in manufacturing, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans le secteur manufacturier, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in electricity, gas, heating and cooling, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les domaines de l'électricité, du gaz, du chauffage et du refroidissement, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in water supply, waste management, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans l'approvisionnement en eau et la gestion des déchets, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in construction, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans la construction, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in wholesale and retail trade, MV repair, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans le commerce de gros et de détail, la réparation de véhicules à moteur, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in transportation and storage, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés en transport et entreposage, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in accommodation and food services, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les services d'hébergement et de restauration, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in information and communication, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés en information et communication, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in finance and insurances, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés en finance et assurances, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in real estate activities, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les activités immobilières, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in professional, scientific and technical activities, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les domaines professionnel, scientifique et technique, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in administration and support, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés en matière d'administration et de soutien, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in public administration, defence, and social security, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans l'administration publique, la défense et la sécurité sociale, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in education, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés en éducation, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in health and social work, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les domaines de la santé et du travail social, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in arts, entertainment and recreation, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les domaines de l'art, du divertissement et des loisirs, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in other services, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans d'autres services, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in households, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les ménages, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in extraterritorial organisations and bodies, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans les organisations et organismes extraterritoriaux, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in all activities, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés dans toutes les activités, mesure la plus récente 2015-24</t>
   </si>
   <si>
-    <t>Number of workers with high skill in activities not elsewhere classified, most recent measure 2015-24</t>
+    <t>Nombre de travailleurs hautement qualifiés non classés ailleurs, mesure la plus récente 2015-24</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>..</t>
@@ -297,19 +297,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -318,7 +318,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -330,58 +333,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
-    <t>Central Africa</t>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -393,13 +396,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -417,7 +420,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -435,79 +438,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
+    <t>Ouganda</t>
   </si>
   <si>
-    <t>East Africa</t>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
+    <t>Tunisie</t>
   </si>
   <si>
-    <t>North Africa</t>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -519,7 +522,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -531,7 +534,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -543,13 +546,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -579,7 +582,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -594,22 +597,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
+    <t>Afrique de l'Ouest</t>
   </si>
   <si>
-    <t>Africa</t>
+    <t>Afrique</t>
   </si>
   <si>
-    <t>World outside Africa</t>
+    <t>Reste du monde</t>
   </si>
   <si>
-    <t>Latin America and Caribbean</t>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
   </si>
   <si>
-    <t>Asia (no high inc.)</t>
+    <t>Asie (pays à revenu élevé exclus)</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -618,19 +621,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
+    <t>CAE</t>
   </si>
   <si>
-    <t>ECCAS</t>
+    <t>CEEAC</t>
   </si>
   <si>
-    <t>ECOWAS</t>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -648,104 +651,110 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
+    <t>OCDE</t>
   </si>
   <si>
-    <t>Africa, Resource-rich countries</t>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
   </si>
   <si>
-    <t>ROW, Resource-rich countries</t>
+    <t>RDM, pays riches en ressources</t>
   </si>
   <si>
-    <t>Africa, Non-resource-rich countries</t>
+    <t>Afrique (pays riches en ressources exclus)</t>
   </si>
   <si>
-    <t>ROW, Non-resource-rich countries</t>
+    <t>RDM (pays riches en ressources exclus)</t>
   </si>
   <si>
-    <t>Africa, Low income countries</t>
+    <t>Afrique, pays à faible revenu</t>
   </si>
   <si>
-    <t>ROW, Low income countries</t>
+    <t>RDM, pays à faible revenu</t>
   </si>
   <si>
-    <t>Africa, Lower middle income countries</t>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
   </si>
   <si>
-    <t>ROW, Lower middle income countries</t>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
   </si>
   <si>
-    <t>Africa, Upper middle income countries</t>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
   </si>
   <si>
-    <t>ROW, Upper middle income countries</t>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>High income countries</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
-    <t>Africa, Least Developed Countries</t>
+    <t>Afrique, pays les moins avancés</t>
   </si>
   <si>
-    <t>ROW, Least Developed Countries</t>
+    <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Africa, Small Island Developing States</t>
+    <t>Afrique, petits États insulaires en développement</t>
   </si>
   <si>
-    <t>ROW, Small Island Developing States</t>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
-    <t>Africa, Landlocked Developing Countries</t>
+    <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>ROW, Landlocked Developing Countries</t>
+    <t>RDM, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Africa, High and extreme fragility</t>
+    <t>Afrique, États fragiles</t>
   </si>
   <si>
-    <t>ROW, High and extreme fragility</t>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
   </si>
   <si>
-    <t>Source: International Labour Organization - ILOSTAT (retrieved 09/09/2025).</t>
+    <t>Source : Organisation internationale du travail – ILOSTAT (consulté le 09/09/2025).</t>
   </si>
   <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
+    <t/>
   </si>
   <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
   </si>
   <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
   </si>
   <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,16 +886,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1341,8 +1340,8 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1625,19 +1624,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2339F75C-F11E-4614-93E8-4EC0EAE494D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F1BAA5-A2F0-47A3-8405-E8401A7B155A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS113"/>
+  <dimension ref="A1:BS115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="71" width="15.54296875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="80" customWidth="1"/>
+    <col min="4" max="71" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1714,7 +1714,7 @@
       <c r="BR1" s="3"/>
       <c r="BS1" s="3"/>
     </row>
-    <row r="2" spans="1:71" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:71" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4080,9 +4080,11 @@
       </c>
     </row>
     <row r="13" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="28">
         <v>735.06</v>
@@ -4294,10 +4296,10 @@
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="21">
         <v>151.95099999999999</v>
@@ -4509,10 +4511,10 @@
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="21">
         <v>5.4409999999999998</v>
@@ -4724,10 +4726,10 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>74</v>
@@ -4939,10 +4941,10 @@
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C17" s="32">
         <v>4.048</v>
@@ -5154,10 +5156,10 @@
     </row>
     <row r="18" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>74</v>
@@ -5369,10 +5371,10 @@
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>74</v>
@@ -5584,10 +5586,10 @@
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>74</v>
@@ -5799,10 +5801,10 @@
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>74</v>
@@ -6014,10 +6016,10 @@
     </row>
     <row r="22" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" s="36">
         <v>0.23100000000000001</v>
@@ -6228,9 +6230,11 @@
       </c>
     </row>
     <row r="23" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" s="28">
         <v>161.67099999999999</v>
@@ -6442,10 +6446,10 @@
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24" s="40">
         <v>8.73</v>
@@ -6657,10 +6661,10 @@
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>74</v>
@@ -6872,10 +6876,10 @@
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>74</v>
@@ -7087,10 +7091,10 @@
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C27" s="21">
         <v>4553.3140000000003</v>
@@ -7302,10 +7306,10 @@
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="21">
         <v>1850.1379999999999</v>
@@ -7517,10 +7521,10 @@
     </row>
     <row r="29" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="21">
         <v>2076.752</v>
@@ -7732,10 +7736,10 @@
     </row>
     <row r="30" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" s="21">
         <v>8.1340000000000003</v>
@@ -7947,10 +7951,10 @@
     </row>
     <row r="31" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" s="21">
         <v>1461.27</v>
@@ -8162,10 +8166,10 @@
     </row>
     <row r="32" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" s="21">
         <v>7.2999999999999995E-2</v>
@@ -8377,10 +8381,10 @@
     </row>
     <row r="33" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" s="21">
         <v>120.286</v>
@@ -8592,10 +8596,10 @@
     </row>
     <row r="34" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>74</v>
@@ -8807,10 +8811,10 @@
     </row>
     <row r="35" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C35" s="21">
         <v>515.15599999999995</v>
@@ -9022,10 +9026,10 @@
     </row>
     <row r="36" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C36" s="21">
         <v>1170.325</v>
@@ -9237,10 +9241,10 @@
     </row>
     <row r="37" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C37" s="23">
         <v>624.09400000000005</v>
@@ -9451,9 +9455,11 @@
       </c>
     </row>
     <row r="38" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C38" s="28">
         <v>12388.272000000001</v>
@@ -9665,10 +9671,10 @@
     </row>
     <row r="39" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>74</v>
@@ -9880,10 +9886,10 @@
     </row>
     <row r="40" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" s="21">
         <v>62.457000000000001</v>
@@ -10095,10 +10101,10 @@
     </row>
     <row r="41" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>74</v>
@@ -10310,10 +10316,10 @@
     </row>
     <row r="42" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>74</v>
@@ -10525,10 +10531,10 @@
     </row>
     <row r="43" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>74</v>
@@ -10740,10 +10746,10 @@
     </row>
     <row r="44" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C44" s="36">
         <v>101.544</v>
@@ -10954,9 +10960,11 @@
       </c>
     </row>
     <row r="45" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C45" s="28">
         <v>164.001</v>
@@ -11168,10 +11176,10 @@
     </row>
     <row r="46" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C46" s="40">
         <v>28.773</v>
@@ -11383,10 +11391,10 @@
     </row>
     <row r="47" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C47" s="21">
         <v>32.622999999999998</v>
@@ -11598,10 +11606,10 @@
     </row>
     <row r="48" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" s="32">
         <v>5.7839999999999998</v>
@@ -11813,10 +11821,10 @@
     </row>
     <row r="49" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C49" s="21">
         <v>160.655</v>
@@ -12028,10 +12036,10 @@
     </row>
     <row r="50" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50" s="21">
         <v>16.631</v>
@@ -12243,10 +12251,10 @@
     </row>
     <row r="51" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" s="15">
         <v>144.49299999999999</v>
@@ -12458,10 +12466,10 @@
     </row>
     <row r="52" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>74</v>
@@ -12673,10 +12681,10 @@
     </row>
     <row r="53" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C53" s="21">
         <v>163.56700000000001</v>
@@ -12888,10 +12896,10 @@
     </row>
     <row r="54" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C54" s="21">
         <v>20.263000000000002</v>
@@ -13103,10 +13111,10 @@
     </row>
     <row r="55" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55" s="21">
         <v>5.4950000000000001</v>
@@ -13318,10 +13326,10 @@
     </row>
     <row r="56" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C56" s="21">
         <v>92.186999999999998</v>
@@ -13533,10 +13541,10 @@
     </row>
     <row r="57" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C57" s="21">
         <v>371.82600000000002</v>
@@ -13748,10 +13756,10 @@
     </row>
     <row r="58" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C58" s="21">
         <v>26.207000000000001</v>
@@ -13963,10 +13971,10 @@
     </row>
     <row r="59" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C59" s="21">
         <v>21.318000000000001</v>
@@ -14178,10 +14186,10 @@
     </row>
     <row r="60" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60" s="23">
         <v>2.2450000000000001</v>
@@ -14392,9 +14400,11 @@
       </c>
     </row>
     <row r="61" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="26"/>
+      <c r="A61" s="26" t="s">
+        <v>93</v>
+      </c>
       <c r="B61" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C61" s="28">
         <v>1092.067</v>
@@ -14605,9 +14615,11 @@
       </c>
     </row>
     <row r="62" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="48"/>
+      <c r="A62" s="48" t="s">
+        <v>93</v>
+      </c>
       <c r="B62" s="49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C62" s="50">
         <v>14541.071</v>
@@ -14818,9 +14830,11 @@
       </c>
     </row>
     <row r="63" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="48"/>
+      <c r="A63" s="48" t="s">
+        <v>93</v>
+      </c>
       <c r="B63" s="49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C63" s="50">
         <v>84625.763999999996</v>
@@ -15031,9 +15045,11 @@
       </c>
     </row>
     <row r="64" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A64" s="53"/>
+      <c r="A64" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B64" s="54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64" s="55">
         <v>12245.413</v>
@@ -15244,9 +15260,11 @@
       </c>
     </row>
     <row r="65" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A65" s="53"/>
+      <c r="A65" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B65" s="58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C65" s="59">
         <v>66878.752999999997</v>
@@ -15457,9 +15475,11 @@
       </c>
     </row>
     <row r="66" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="53"/>
+      <c r="A66" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B66" s="62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66" s="63">
         <v>99166.835000000006</v>
@@ -15670,9 +15690,11 @@
       </c>
     </row>
     <row r="67" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A67" s="53"/>
+      <c r="A67" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B67" s="58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C67" s="59">
         <v>11983.18</v>
@@ -15883,9 +15905,11 @@
       </c>
     </row>
     <row r="68" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A68" s="53"/>
+      <c r="A68" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B68" s="58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C68" s="59">
         <v>1878.241</v>
@@ -16096,9 +16120,11 @@
       </c>
     </row>
     <row r="69" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A69" s="53"/>
+      <c r="A69" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B69" s="58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C69" s="59">
         <v>5257.7780000000002</v>
@@ -16309,9 +16335,11 @@
       </c>
     </row>
     <row r="70" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A70" s="53"/>
+      <c r="A70" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B70" s="58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C70" s="59">
         <v>1660.5820000000001</v>
@@ -16522,9 +16550,11 @@
       </c>
     </row>
     <row r="71" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A71" s="53"/>
+      <c r="A71" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B71" s="58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C71" s="59">
         <v>1092.067</v>
@@ -16735,9 +16765,11 @@
       </c>
     </row>
     <row r="72" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A72" s="53"/>
+      <c r="A72" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B72" s="58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C72" s="59">
         <v>7662.9880000000003</v>
@@ -16948,9 +16980,11 @@
       </c>
     </row>
     <row r="73" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A73" s="53"/>
+      <c r="A73" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B73" s="58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C73" s="59">
         <v>3999.0740000000001</v>
@@ -17161,9 +17195,11 @@
       </c>
     </row>
     <row r="74" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A74" s="53"/>
+      <c r="A74" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B74" s="58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C74" s="59">
         <v>101.544</v>
@@ -17374,9 +17410,11 @@
       </c>
     </row>
     <row r="75" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="53"/>
+      <c r="A75" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B75" s="58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C75" s="66">
         <v>271.96800000000002</v>
@@ -17587,9 +17625,11 @@
       </c>
     </row>
     <row r="76" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A76" s="53"/>
+      <c r="A76" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B76" s="69" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C76" s="70">
         <v>25909.491000000002</v>
@@ -17800,9 +17840,11 @@
       </c>
     </row>
     <row r="77" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A77" s="53"/>
+      <c r="A77" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B77" s="58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C77" s="59">
         <v>7507.1149999999998</v>
@@ -18013,9 +18055,11 @@
       </c>
     </row>
     <row r="78" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A78" s="53"/>
+      <c r="A78" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B78" s="58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C78" s="59">
         <v>1216.75</v>
@@ -18226,9 +18270,11 @@
       </c>
     </row>
     <row r="79" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="53"/>
+      <c r="A79" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B79" s="62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C79" s="63">
         <v>7417.2979999999998</v>
@@ -18439,9 +18485,11 @@
       </c>
     </row>
     <row r="80" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A80" s="53"/>
+      <c r="A80" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B80" s="69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C80" s="70">
         <v>47.472999999999999</v>
@@ -18652,9 +18700,11 @@
       </c>
     </row>
     <row r="81" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A81" s="53"/>
+      <c r="A81" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B81" s="58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C81" s="59">
         <v>2462.4810000000002</v>
@@ -18865,9 +18915,11 @@
       </c>
     </row>
     <row r="82" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A82" s="53"/>
+      <c r="A82" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B82" s="58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C82" s="59">
         <v>14493.598</v>
@@ -19078,9 +19130,11 @@
       </c>
     </row>
     <row r="83" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="53"/>
+      <c r="A83" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B83" s="62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C83" s="63">
         <v>82163.282999999996</v>
@@ -19291,9 +19345,11 @@
       </c>
     </row>
     <row r="84" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A84" s="53"/>
+      <c r="A84" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B84" s="69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C84" s="70">
         <v>5372.6310000000003</v>
@@ -19504,9 +19560,11 @@
       </c>
     </row>
     <row r="85" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A85" s="53"/>
+      <c r="A85" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B85" s="73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C85" s="59">
         <v>84.396000000000001</v>
@@ -19717,9 +19775,11 @@
       </c>
     </row>
     <row r="86" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A86" s="53"/>
+      <c r="A86" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B86" s="58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C86" s="59">
         <v>4535.6419999999998</v>
@@ -19930,9 +19990,11 @@
       </c>
     </row>
     <row r="87" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A87" s="53"/>
+      <c r="A87" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B87" s="58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C87" s="59">
         <v>56529.220999999998</v>
@@ -20143,9 +20205,11 @@
       </c>
     </row>
     <row r="88" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A88" s="53"/>
+      <c r="A88" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B88" s="58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C88" s="59">
         <v>79.411000000000001</v>
@@ -20356,9 +20420,11 @@
       </c>
     </row>
     <row r="89" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A89" s="53"/>
+      <c r="A89" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B89" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C89" s="59">
         <v>25038.014999999999</v>
@@ -20569,9 +20635,11 @@
       </c>
     </row>
     <row r="90" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="53"/>
+      <c r="A90" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B90" s="62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C90" s="63">
         <v>2974.2049999999999</v>
@@ -20782,9 +20850,11 @@
       </c>
     </row>
     <row r="91" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A91" s="53"/>
+      <c r="A91" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B91" s="69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C91" s="70">
         <v>11498.973</v>
@@ -20995,9 +21065,11 @@
       </c>
     </row>
     <row r="92" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A92" s="53"/>
+      <c r="A92" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B92" s="58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C92" s="59">
         <v>6218.8630000000003</v>
@@ -21208,9 +21280,11 @@
       </c>
     </row>
     <row r="93" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A93" s="53"/>
+      <c r="A93" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B93" s="58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C93" s="59">
         <v>186.51900000000001</v>
@@ -21421,9 +21495,11 @@
       </c>
     </row>
     <row r="94" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A94" s="53"/>
+      <c r="A94" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B94" s="58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C94" s="59">
         <v>397.14699999999999</v>
@@ -21634,9 +21710,11 @@
       </c>
     </row>
     <row r="95" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A95" s="53"/>
+      <c r="A95" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B95" s="58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C95" s="59">
         <v>7520.1589999999997</v>
@@ -21847,9 +21925,11 @@
       </c>
     </row>
     <row r="96" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="53"/>
+      <c r="A96" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B96" s="62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" s="63">
         <v>1281.0419999999999</v>
@@ -22060,9 +22140,11 @@
       </c>
     </row>
     <row r="97" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A97" s="53"/>
+      <c r="A97" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B97" s="69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C97" s="70">
         <v>13979.982</v>
@@ -22273,9 +22355,11 @@
       </c>
     </row>
     <row r="98" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="53"/>
+      <c r="A98" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="B98" s="62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C98" s="63">
         <v>10451.152</v>
@@ -22560,7 +22644,7 @@
     </row>
     <row r="100" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -22634,7 +22718,7 @@
     </row>
     <row r="101" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C101" s="76"/>
       <c r="D101" s="76"/>
@@ -22708,7 +22792,7 @@
     </row>
     <row r="102" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C102" s="76"/>
       <c r="D102" s="76"/>
@@ -22782,7 +22866,7 @@
     </row>
     <row r="103" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C103" s="76"/>
       <c r="D103" s="76"/>
@@ -22856,7 +22940,7 @@
     </row>
     <row r="104" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C104" s="76"/>
       <c r="D104" s="76"/>
@@ -22929,6 +23013,9 @@
       <c r="BS104" s="76"/>
     </row>
     <row r="105" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -23000,6 +23087,9 @@
       <c r="BS105" s="76"/>
     </row>
     <row r="106" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -23071,10 +23161,8 @@
       <c r="BR106" s="76"/>
       <c r="BS106" s="76"/>
     </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>228</v>
-      </c>
+    <row r="107" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -23146,7 +23234,9 @@
       <c r="BS107" s="76"/>
     </row>
     <row r="108" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="81" t="s">
+        <v>233</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -23218,9 +23308,7 @@
       <c r="BS108" s="76"/>
     </row>
     <row r="109" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>230</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -23292,8 +23380,8 @@
       <c r="BS109" s="76"/>
     </row>
     <row r="110" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>231</v>
+      <c r="B110" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -23366,8 +23454,8 @@
       <c r="BS110" s="76"/>
     </row>
     <row r="111" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>232</v>
+      <c r="B111" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -23440,8 +23528,8 @@
       <c r="BS111" s="76"/>
     </row>
     <row r="112" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>229</v>
+      <c r="B112" s="81" t="s">
+        <v>234</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -23514,7 +23602,9 @@
       <c r="BS112" s="76"/>
     </row>
     <row r="113" spans="2:71" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="81" t="s">
+        <v>232</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -23585,17 +23675,115 @@
       <c r="BR113" s="76"/>
       <c r="BS113" s="76"/>
     </row>
+    <row r="114" spans="2:71" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="76"/>
+      <c r="Q114" s="76"/>
+      <c r="R114" s="76"/>
+      <c r="S114" s="76"/>
+      <c r="T114" s="76"/>
+      <c r="U114" s="76"/>
+      <c r="V114" s="76"/>
+      <c r="W114" s="76"/>
+      <c r="X114" s="76"/>
+      <c r="Y114" s="76"/>
+      <c r="Z114" s="76"/>
+      <c r="AA114" s="76"/>
+      <c r="AB114" s="76"/>
+      <c r="AC114" s="76"/>
+      <c r="AD114" s="76"/>
+      <c r="AE114" s="76"/>
+      <c r="AF114" s="76"/>
+      <c r="AG114" s="76"/>
+      <c r="AH114" s="76"/>
+      <c r="AI114" s="76"/>
+      <c r="AJ114" s="76"/>
+      <c r="AK114" s="76"/>
+      <c r="AL114" s="76"/>
+      <c r="AM114" s="76"/>
+      <c r="AN114" s="76"/>
+      <c r="AO114" s="76"/>
+      <c r="AP114" s="76"/>
+      <c r="AQ114" s="76"/>
+      <c r="AR114" s="76"/>
+      <c r="AS114" s="76"/>
+      <c r="AT114" s="76"/>
+      <c r="AU114" s="76"/>
+      <c r="AV114" s="76"/>
+      <c r="AW114" s="76"/>
+      <c r="AX114" s="76"/>
+      <c r="AY114" s="76"/>
+      <c r="AZ114" s="76"/>
+      <c r="BA114" s="76"/>
+      <c r="BB114" s="76"/>
+      <c r="BC114" s="76"/>
+      <c r="BD114" s="76"/>
+      <c r="BE114" s="76"/>
+      <c r="BF114" s="76"/>
+      <c r="BG114" s="76"/>
+      <c r="BH114" s="76"/>
+      <c r="BI114" s="76"/>
+      <c r="BJ114" s="76"/>
+      <c r="BK114" s="76"/>
+      <c r="BL114" s="76"/>
+      <c r="BM114" s="76"/>
+      <c r="BN114" s="76"/>
+      <c r="BO114" s="76"/>
+      <c r="BP114" s="76"/>
+      <c r="BQ114" s="76"/>
+      <c r="BR114" s="76"/>
+      <c r="BS114" s="76"/>
+    </row>
+    <row r="115" spans="2:71" x14ac:dyDescent="0.35">
+      <c r="B115" s="78"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="79"/>
+      <c r="L115" s="79"/>
+      <c r="M115" s="79"/>
+      <c r="N115" s="79"/>
+      <c r="O115" s="79"/>
+      <c r="P115" s="79"/>
+      <c r="Q115" s="79"/>
+      <c r="R115" s="79"/>
+      <c r="S115" s="79"/>
+      <c r="T115" s="79"/>
+      <c r="U115" s="79"/>
+      <c r="V115" s="79"/>
+      <c r="W115" s="79"/>
+      <c r="X115" s="79"/>
+      <c r="Y115" s="79"/>
+      <c r="Z115" s="79"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AFD4B179-3BD3-402C-AABA-87BD11E4DEF0}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{047DAF0A-1081-4047-BA11-653296C8D662}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{DB1C0D91-E21F-4CD2-8C05-054A904F4F16}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{E6B9F38C-C378-4C1B-883E-EEF5D6AF6BB2}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{EA3DDA0B-C429-44EF-9CB9-5D7CA193CA77}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{2E206EB0-9760-4F1E-9DED-D0077300F8EF}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5783CC48-314F-4BEB-B8FD-009F34DC5479}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B11C7818-B981-4968-9BFF-4FC0A7446B50}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{B30F755D-485F-4590-952B-A2B180CCBF76}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{15522F82-8210-4F7E-8C28-A025B8374690}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{8CB744B5-13F1-44EA-AE89-7AE1C9F60DFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
